--- a/Pay_api_issues250717.xlsx
+++ b/Pay_api_issues250717.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mckinsey\codebase\banking-app-stubs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mckinsey\workspace\26Jul\banking-app-stubs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>Stream</t>
   </si>
@@ -169,6 +169,18 @@
   </si>
   <si>
     <t>How to identify the details for ToAccount based on user inputs. Currently there are options for beneficiary name, account number and bank name can be edited by user.</t>
+  </si>
+  <si>
+    <t>Safe to spend field</t>
+  </si>
+  <si>
+    <t>/accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Currently there is no information available that how the "safeToSpendAmount" going to be calculated whether on UI or backend flow.
+2. We have assumed that "safeToSpendAmount" tag will be available in payment accounts response json which can be directy used in payment screen.
+3. We need information that whether this information will be available directly from client API or need to write logic to calculate safe to spend amount.</t>
   </si>
 </sst>
 </file>
@@ -509,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -673,6 +685,26 @@
         <v>31</v>
       </c>
     </row>
+    <row r="9" spans="1:6" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
